--- a/1_excel/sample_formula.xlsx
+++ b/1_excel/sample_formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\rpa_basic\1_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B3F568-4CB9-4763-8EE4-4747441329D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A14534-E9FB-4E05-A234-137D27A84BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="3405" windowWidth="14130" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="4425" windowWidth="14130" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>44405.865241864398</v>
+        <v>44405.90382751383</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
